--- a/GradedExercise.xlsx
+++ b/GradedExercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/projects/git/webec-hs20-template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/projects/git/fhnw/WebEngineering-HS20/webengineering-hs20-dk-graded-exercise-ThierryOdermatt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB55E5A1-621A-AE49-8B7F-D48867ABAFB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7E82E2-E5E3-7F49-A868-67E776E6AD7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="460" windowWidth="21260" windowHeight="22580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9180" yWindow="23540" windowWidth="21260" windowHeight="20500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
   <dimension ref="B1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -726,11 +726,11 @@
       </c>
       <c r="G6" s="3">
         <f>SUM(G4:G5)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3">
         <f>MIN(C6,G6)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -741,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -752,7 +752,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -763,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -774,7 +774,7 @@
         <v>30</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -785,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -796,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -808,11 +808,11 @@
       </c>
       <c r="G14" s="3">
         <f>SUM(G8:G13)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H14" s="3">
         <f>MIN(C14,G14)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -827,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
@@ -838,7 +838,7 @@
         <v>13</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -860,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
@@ -871,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -882,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
@@ -893,7 +893,7 @@
         <v>16</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
@@ -905,11 +905,11 @@
       </c>
       <c r="G23" s="3">
         <f>SUM(G16:G22)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H23" s="3">
         <f>MIN(C23,G23)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
@@ -996,7 +996,7 @@
       <c r="G33" s="9"/>
       <c r="H33" s="10">
         <f>SUM(H4:H30)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
@@ -1058,7 +1058,7 @@
       <c r="H40" s="9"/>
       <c r="I40" s="9">
         <f>Bonus-Malus</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
@@ -1073,7 +1073,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="5">
         <f>1 + TOTAL/10</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
